--- a/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Functional Unit</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Max Inv</t>
   </si>
   <si>
-    <t>Revenue</t>
+    <t>Investment</t>
   </si>
   <si>
     <t>Saving</t>
@@ -46,31 +46,37 @@
     <t>Land Saving</t>
   </si>
   <si>
-    <t>Water Consumption</t>
-  </si>
-  <si>
-    <t>Emission Consumption</t>
-  </si>
-  <si>
-    <t>Land Consumption</t>
-  </si>
-  <si>
-    <t>kSh/FU</t>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
+    <t>Water Investment</t>
+  </si>
+  <si>
+    <t>Emission Investment</t>
+  </si>
+  <si>
+    <t>Land Investment</t>
+  </si>
+  <si>
+    <t>Workforce Investment</t>
+  </si>
+  <si>
+    <t>M kSh/FU</t>
   </si>
   <si>
     <t>FU</t>
   </si>
   <si>
-    <t>kSh</t>
+    <t>M kSh</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>m3/FU</t>
   </si>
   <si>
-    <t>ton/FU</t>
-  </si>
-  <si>
-    <t>ha/FU</t>
+    <t>kton/FU</t>
   </si>
   <si>
     <t>Pulping_machines_450_109</t>
@@ -434,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -478,54 +484,66 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -537,31 +555,37 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>400.9907172536477</v>
       </c>
       <c r="G4">
-        <v>0.8074097540229559</v>
+        <v>-0.9994304059073329</v>
       </c>
       <c r="H4">
-        <v>1.387151816533118</v>
+        <v>-401.219249367952</v>
       </c>
       <c r="I4">
-        <v>4.378589117433876</v>
+        <v>-0.05114082011277787</v>
       </c>
       <c r="J4">
-        <v>0.0006070078125048894</v>
+        <v>-0.01008209880092181</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.2510589539306238</v>
       </c>
       <c r="L4">
-        <v>0.004962510938639753</v>
+        <v>-0.1366259895730764</v>
       </c>
       <c r="M4">
-        <v>0.002309762501681689</v>
+        <v>1.799733230887796</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.096701021939225</v>
+      </c>
+      <c r="O4">
+        <v>0.4893780273851007</v>
+      </c>
+      <c r="P4">
+        <v>20.56325181527063</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
@@ -555,37 +555,37 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>400.9907172536477</v>
+        <v>1.00000015925616</v>
       </c>
       <c r="G4">
-        <v>-0.9994304059073329</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="H4">
-        <v>-401.219249367952</v>
+        <v>1.63725814495874</v>
       </c>
       <c r="I4">
-        <v>-0.05114082011277787</v>
+        <v>0.002327894559130073</v>
       </c>
       <c r="J4">
-        <v>-0.01008209880092181</v>
+        <v>0.002149965708667878</v>
       </c>
       <c r="K4">
-        <v>-0.2510589539306238</v>
+        <v>0.3085486581549048</v>
       </c>
       <c r="L4">
-        <v>-0.1366259895730764</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="M4">
-        <v>1.799733230887796</v>
+        <v>0.0006180771888466552</v>
       </c>
       <c r="N4">
-        <v>1.096701021939225</v>
+        <v>0.2859652930637822</v>
       </c>
       <c r="O4">
-        <v>0.4893780273851007</v>
+        <v>0.0001950151054188609</v>
       </c>
       <c r="P4">
-        <v>20.56325181527063</v>
+        <v>0.09720575390383601</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
@@ -555,37 +555,37 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00000015925616</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="G4">
-        <v>0.6107773305848241</v>
+        <v>3253.734504770488</v>
       </c>
       <c r="H4">
-        <v>1.63725814495874</v>
+        <v>1.666177596826546</v>
       </c>
       <c r="I4">
-        <v>0.002327894559130073</v>
+        <v>9.686076806276105</v>
       </c>
       <c r="J4">
-        <v>0.002149965708667878</v>
+        <v>58.23311956987891</v>
       </c>
       <c r="K4">
-        <v>0.3085486581549048</v>
+        <v>3.371160993818194</v>
       </c>
       <c r="L4">
-        <v>0.03071292489767075</v>
+        <v>75.68173810420558</v>
       </c>
       <c r="M4">
-        <v>0.0006180771888466552</v>
+        <v>24.33238917902054</v>
       </c>
       <c r="N4">
-        <v>0.2859652930637822</v>
+        <v>14.82826949442824</v>
       </c>
       <c r="O4">
-        <v>0.0001950151054188609</v>
+        <v>6.616823517833836</v>
       </c>
       <c r="P4">
-        <v>0.09720575390383601</v>
+        <v>278.0264926441014</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines_450_109.xlsx
@@ -555,37 +555,37 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5421.299537870102</v>
+        <v>1.00000015925616</v>
       </c>
       <c r="G4">
-        <v>3253.734504770488</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="H4">
-        <v>1.666177596826546</v>
+        <v>1.63725814495874</v>
       </c>
       <c r="I4">
-        <v>9.686076806276105</v>
+        <v>0.002327894559130073</v>
       </c>
       <c r="J4">
-        <v>58.23311956987891</v>
+        <v>0.002149965708667878</v>
       </c>
       <c r="K4">
-        <v>3.371160993818194</v>
+        <v>0.3085486581549048</v>
       </c>
       <c r="L4">
-        <v>75.68173810420558</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="M4">
-        <v>24.33238917902054</v>
+        <v>0.0006180771888466552</v>
       </c>
       <c r="N4">
-        <v>14.82826949442824</v>
+        <v>0.2859652930637822</v>
       </c>
       <c r="O4">
-        <v>6.616823517833836</v>
+        <v>0.0001950151054188609</v>
       </c>
       <c r="P4">
-        <v>278.0264926441014</v>
+        <v>0.09720575390383601</v>
       </c>
     </row>
   </sheetData>
